--- a/email_validation_results.xlsx
+++ b/email_validation_results.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MX record found: alt1.gmail-smtp-in.l.google.com.</t>
+          <t>MX record found: alt3.gmail-smtp-in.l.google.com.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MX record found: alt3.gmail-smtp-in.l.google.com.</t>
+          <t>MX record found: alt4.gmail-smtp-in.l.google.com.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1211,6 +1211,246 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>zkytd@example.com</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>fkdfe@example.com</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>wqkfy@example.com</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>zmbmd@example.com</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>jtjpr@example.com</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>gmtgx@example.com</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>xykui@example.com</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ycjxx@example.com</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>xmzgw@example.com</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>hjwig@example.com</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>kniuz@example.com</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>vxwyp@example.com</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>akwqu@example.com</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>cfqow@example.com</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>eiamn@example.com</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>gtodf@example.com</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>qjcoq@example.com</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>typuq@example.com</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>bipsp@example.com</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>uthib@example.com</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/email_validation_results.xlsx
+++ b/email_validation_results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +434,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="27" customWidth="1" min="1" max="1"/>
-    <col width="27" customWidth="1" min="2" max="2"/>
+    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="28" customWidth="1" min="2" max="2"/>
     <col width="51" customWidth="1" min="3" max="3"/>
-    <col width="49" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -475,7 +475,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MX record found: alt3.gmail-smtp-in.l.google.com.</t>
+          <t>MX record found: alt4.gmail-smtp-in.l.google.com.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -525,6 +525,28 @@
       <c r="D4" t="inlineStr">
         <is>
           <t>Email mohamedboudane6@gmail.com is deliverable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>mohamed15lachhab@gmail.com</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>mohamed15lachhab@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MX record found: alt4.gmail-smtp-in.l.google.com.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Email mohamed15lachhab@gmail.com is deliverable.</t>
         </is>
       </c>
     </row>
@@ -539,7 +561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -767,690 +789,6 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>tytho@example.com</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>qwldl@example.com</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>csiiz@example.com</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>mkjfb@example.com</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>avvti@example.com</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>bwahd@example.com</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>tvbef@example.com</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>acfwc@example.com</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>xnrfq@example.com</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>yawtv@example.com</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>gmuej@example.com</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>olilq@example.com</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>dcwiy@example.com</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>jrnhb@example.com</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>udjam@example.com</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>kjdlz@example.com</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>lpmuo@example.com</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>ywbbu@example.com</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>ivxhu@example.com</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>hldos@example.com</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>odmou@example.com</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>huhnw@example.com</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>dpchs@example.com</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>gszvx@example.com</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>labil@example.com</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>torti@example.com</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>nagad@example.com</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>rfnao@example.com</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>pntsx@example.com</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>vriyh@example.com</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>ctbhi@example.com</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>nxmex@example.com</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>zpgdj@example.com</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>chvnx@example.com</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>hxnmo@example.com</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>bwtds@example.com</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>htoql@example.com</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>zkytd@example.com</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>fkdfe@example.com</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>wqkfy@example.com</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>zmbmd@example.com</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>jtjpr@example.com</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>gmtgx@example.com</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>xykui@example.com</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>ycjxx@example.com</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>xmzgw@example.com</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>hjwig@example.com</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>kniuz@example.com</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>vxwyp@example.com</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>akwqu@example.com</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>cfqow@example.com</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>eiamn@example.com</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>gtodf@example.com</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>qjcoq@example.com</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>typuq@example.com</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>bipsp@example.com</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>uthib@example.com</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Invalid email syntax: The domain name example.com does not accept email.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
